--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-561246.9794861883</v>
+        <v>-563134.5610025902</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>455032.4085630107</v>
+        <v>236671.3015960907</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>185.5641399472582</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>109.5303549827045</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.165601831728317</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>155.5996201121487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>322.9634496167986</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.6114349298495</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>235.500096002687</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>289.5779376324737</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>105.1406359466289</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>110.0115294480439</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>137.6226750441173</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.42216110519207</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>167.2295410213241</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>28.21685351626292</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>74.70118863072321</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.89259855394985</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.3097409636395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>8.570380610206138</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>173.6793845477824</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>252.0851812279347</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784671</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>39.55960582285822</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>137.6826934278273</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533799</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180118</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437388</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348202</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>42.12214557694299</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523543</v>
+        <v>54.76109577523564</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952706</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080336</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.49120811525896</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2123.618989005894</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X2" t="n">
-        <v>1750.153230744814</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,10 +4416,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4428,31 +4428,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.027325963587</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4522,16 +4522,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.027325963587</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1640.777806202926</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="C5" t="n">
-        <v>1271.815289262514</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="D5" t="n">
-        <v>1271.815289262514</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1271.815289262514</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>860.8293844729069</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.777806202926</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417901</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>599.2285448833542</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>599.2285448833542</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="U7" t="n">
-        <v>490.2500993552354</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="V7" t="n">
-        <v>490.2500993552354</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1157.143510575154</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1157.143510575154</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>771.35525797691</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>764.4097572277066</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>346.4459491258934</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1422.14692331494</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.80799380017</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C10" t="n">
-        <v>361.80799380017</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>361.80799380017</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>361.80799380017</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>361.80799380017</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>361.80799380017</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.80799380017</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,22 +5030,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.905903778934</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>1565.426559416552</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2072.756377331216</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2593.056999066963</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6713633309776</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6713633309776</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980056</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585739</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557895</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557895</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557895</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557895</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557895</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352008</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150475</v>
+        <v>731.317728355079</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170302</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170302</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,25 +5358,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>772.8730769161741</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N15" t="n">
-        <v>1364.414563824403</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>2111.803510894048</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>423.0269196489022</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C16" t="n">
-        <v>423.0269196489022</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>999.7550991713208</v>
       </c>
       <c r="V16" t="n">
-        <v>933.236668829393</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924323</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="X16" t="n">
-        <v>643.8194987924323</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.0269196489022</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>327.180197328635</v>
+        <v>313.6574596091988</v>
       </c>
       <c r="M18" t="n">
-        <v>1095.548343721096</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N18" t="n">
-        <v>1899.959921985247</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.713336069209</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,16 +5677,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1240.518888196737</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1240.518888196737</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293932</v>
+        <v>985.8343999908506</v>
       </c>
       <c r="W19" t="n">
-        <v>643.8194987924327</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X19" t="n">
-        <v>643.8194987924327</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,16 +5738,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5759,22 +5759,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028586</v>
+        <v>684.3745488722934</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>515.4383659443865</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>365.3217265320508</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>217.4086329496577</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>217.4086329496577</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>905.1671280158236</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>684.3745488722934</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,40 +5972,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111988</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028581</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1212.407445354291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>923.2788065678494</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>668.5943183619626</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>668.5943183619626</v>
+        <v>989.6002861621823</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>761.610735264165</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>540.8181561206349</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6218,58 +6218,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>424.0331423495622</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899877</v>
+        <v>744.368461879264</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>306.1124721890595</v>
+        <v>723.5186631855839</v>
       </c>
       <c r="C28" t="n">
-        <v>137.1762892611528</v>
+        <v>554.582480257677</v>
       </c>
       <c r="D28" t="n">
-        <v>137.1762892611528</v>
+        <v>404.4658408453413</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>404.4658408453413</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W28" t="n">
-        <v>754.894602230607</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X28" t="n">
-        <v>526.9050513325897</v>
+        <v>905.1671280158237</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.1124721890595</v>
+        <v>905.1671280158237</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,31 +6449,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,25 +6543,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1050.793780719526</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M30" t="n">
-        <v>1819.161927111988</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2111.570778050962</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.0881760231913</v>
+        <v>737.6487151197346</v>
       </c>
       <c r="C31" t="n">
-        <v>392.9128583766555</v>
+        <v>624.4733974731986</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766555</v>
+        <v>530.1176233422337</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756335</v>
+        <v>437.9653950412115</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590942</v>
+        <v>346.8363128246721</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>234.4218564258636</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>139.7647132551778</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864678</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.087636293351</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667521</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962068</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286026</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353695</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056077</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899274</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096197</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662003</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737487</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981897</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652508</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.9757755720599</v>
+        <v>737.6487151197346</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>436.8967109626374</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>1050.793780719526</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2198.113937389053</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>436.8967109626374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171745</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.893885873787</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,10 +7549,10 @@
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7561,7 +7561,7 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>531.7271806036092</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>160.0691419768046</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>230.557216235506</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>226.6975353503768</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>406.3967963723784</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>342.0478048621358</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>254.9038403174322</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>462.5277084110917</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.4098190767452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>58.4801143677131</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3986195019494</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>211.5361637678541</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>163.6549625044394</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.2749123884553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>157.9231878531714</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,13 +24181,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>47.86817651060687</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>34.43781710865628</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>106.874356823711</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>7.738354595103971</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965499</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897876</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571462</v>
+        <v>13.09384325877185</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.89018860827846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.771116669464391e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26347,7 +26347,7 @@
         <v>205260.4424660711</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660711</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284589</v>
+        <v>44162.60530284573</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086662</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028459</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758691</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758772</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758824</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758372</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.793690575957</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.4162047725</v>
+        <v>18952.41620477245</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189627</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002542</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606625.6539925021</v>
+        <v>-606625.6539925023</v>
       </c>
       <c r="C6" t="n">
         <v>-16657.77477795773</v>
       </c>
       <c r="D6" t="n">
-        <v>-16657.77477795779</v>
+        <v>-16657.77477795773</v>
       </c>
       <c r="E6" t="n">
-        <v>-422420.6262473341</v>
+        <v>-422518.0853733064</v>
       </c>
       <c r="F6" t="n">
-        <v>102739.410229562</v>
+        <v>102641.9511035898</v>
       </c>
       <c r="G6" t="n">
-        <v>102739.4102295619</v>
+        <v>102641.9511035898</v>
       </c>
       <c r="H6" t="n">
-        <v>102739.4102295619</v>
+        <v>102641.9511035897</v>
       </c>
       <c r="I6" t="n">
-        <v>102739.4102295619</v>
+        <v>102641.9511035897</v>
       </c>
       <c r="J6" t="n">
-        <v>-73683.80896303103</v>
+        <v>-73781.26808900318</v>
       </c>
       <c r="K6" t="n">
-        <v>43667.83863479411</v>
+        <v>43649.34489685996</v>
       </c>
       <c r="L6" t="n">
-        <v>73995.84891328278</v>
+        <v>73995.84891328256</v>
       </c>
       <c r="M6" t="n">
-        <v>-50462.25951968777</v>
+        <v>-50462.2595196877</v>
       </c>
       <c r="N6" t="n">
-        <v>84338.75571414946</v>
+        <v>84338.75571414932</v>
       </c>
       <c r="O6" t="n">
-        <v>84338.75571414937</v>
+        <v>84338.7557141494</v>
       </c>
       <c r="P6" t="n">
-        <v>40176.15041130349</v>
+        <v>40176.15041130368</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26750,31 +26750,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108328</v>
+        <v>12.92863350108349</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855738</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>163.6768287701548</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.2007456957646</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>38.46332039683753</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>140.2683608148409</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>199.0834215085342</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>90.8207204039964</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>19.05375705030838</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>50.78177823929073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>34.34483513188349</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>264.5904647318401</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>46.15935939375127</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>148.6591991978605</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-7.465814633178523e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.927418225022848e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31136,13 +31136,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31367,13 +31367,13 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31601,10 +31601,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31844,7 +31844,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,16 +31853,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>334.9905423702619</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32078,28 +32078,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>249.5159911824348</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>321.7136411832719</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32321,28 +32321,28 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>225.0728617982313</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,19 +32549,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>147.8809216101172</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32570,16 +32570,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,25 +32698,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L23" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33035,10 +33035,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>380.4309478731434</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33047,13 +33047,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33263,34 +33263,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>23.85840434223323</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33500,16 +33500,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33518,16 +33518,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33743,13 +33743,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33758,13 +33758,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,16 +33901,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O38" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.040313094701</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,25 +33971,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>48.48571443651687</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>116.2910049759612</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>362.6471411517575</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,7 +34369,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
@@ -34445,10 +34445,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>144.2740676092158</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34460,10 +34460,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -35015,13 +35015,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
@@ -35501,16 +35501,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>586.256617202547</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>20.08736789078312</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515205954</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>597.5166534426551</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>506.2020024088789</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>92.00283645563186</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>409.5612230238382</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>380.1668871337022</v>
+        <v>88.14315557050257</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>275.0550842890451</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>203.4934250822616</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>728.4316101333636</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>208.3467655678402</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412289</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075299</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491603</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043212</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37084,13 +37084,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>343.1107267700521</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>120.9294329031019</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>331.1859963277584</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109142</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>175.1095124747365</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>367.5570798082463</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>686.2181709797391</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>270.8978656474354</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
